--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24raeume/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B3295F-FBB3-D849-AD6E-92DF4553B9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7743E05-4A10-4248-A537-A3D458EB0B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>blank</t>
   </si>
@@ -207,6 +207,48 @@
   </si>
   <si>
     <t>instagram-thread.jpg</t>
+  </si>
+  <si>
+    <t>cover.png</t>
+  </si>
+  <si>
+    <t>globe-network.jpg</t>
+  </si>
+  <si>
+    <t>people-network.jpg</t>
+  </si>
+  <si>
+    <t>people-speech-bubbles.jpg</t>
+  </si>
+  <si>
+    <t>hannukah-rainbow.jpg</t>
+  </si>
+  <si>
+    <t>woman-neon.jpg</t>
+  </si>
+  <si>
+    <t>screen-head.jpg</t>
+  </si>
+  <si>
+    <t>man-sillhouette-led.jpg</t>
+  </si>
+  <si>
+    <t>instagram-bushes.jpg</t>
+  </si>
+  <si>
+    <t>facebook-arcade.jpg</t>
+  </si>
+  <si>
+    <t>computer-group.jpg</t>
+  </si>
+  <si>
+    <t>ceiling-lights.jpg</t>
+  </si>
+  <si>
+    <t>phone-bubbles.jpg</t>
+  </si>
+  <si>
+    <t>video-timeline.jpg</t>
   </si>
 </sst>
 </file>
@@ -700,8 +742,8 @@
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -794,7 +836,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2" t="str">
         <f t="shared" ref="K2:K15" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2 &amp; ". " &amp; F2,".",""),"&amp;","")," ","-"),"--","-")</f>
@@ -848,7 +890,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" si="3"/>
@@ -900,7 +942,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="3"/>
@@ -1005,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="3"/>
@@ -1057,7 +1099,7 @@
         <v>6</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="3"/>
@@ -1107,7 +1149,7 @@
         <v>7</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="3"/>
@@ -1159,7 +1201,7 @@
         <v>8</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="3"/>
@@ -1211,7 +1253,7 @@
         <v>9</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="3"/>
@@ -1260,7 +1302,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="3"/>
@@ -1312,7 +1354,7 @@
         <v>11</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="3"/>
@@ -1364,7 +1406,7 @@
         <v>12</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="3"/>
@@ -1414,7 +1456,7 @@
         <v>13</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="3"/>
@@ -1466,7 +1508,7 @@
         <v>14</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="3"/>
@@ -1513,7 +1555,7 @@
         <v>15</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" ref="K16" si="9">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B16 &amp; ". " &amp; F16,".",""),"&amp;","")," ","-"),"--","-")</f>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24raeume/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7743E05-4A10-4248-A537-A3D458EB0B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AA00B3-B853-924D-8447-A4850BFCD2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>blank</t>
   </si>
@@ -110,18 +110,6 @@
     <t>Formen der Medialisierung Ästhetische Praktiken, Sensorik</t>
   </si>
   <si>
-    <t>On- und Offline Fragen</t>
-  </si>
-  <si>
-    <t>Hybride Ethnographie</t>
-  </si>
-  <si>
-    <t>Daten-Scraping</t>
-  </si>
-  <si>
-    <t>Sozial-Media-Inhalte herunterladen</t>
-  </si>
-  <si>
     <t>Inhaltsanalyse &amp; Medienanalyse</t>
   </si>
   <si>
@@ -212,9 +200,6 @@
     <t>cover.png</t>
   </si>
   <si>
-    <t>globe-network.jpg</t>
-  </si>
-  <si>
     <t>people-network.jpg</t>
   </si>
   <si>
@@ -249,6 +234,18 @@
   </si>
   <si>
     <t>video-timeline.jpg</t>
+  </si>
+  <si>
+    <t>On- und Offline Fragen/Daten-Scraping</t>
+  </si>
+  <si>
+    <t>Hybride Ethnographie/Sozial-Media-Inhalte herunterladen</t>
+  </si>
+  <si>
+    <t>fällt aus</t>
+  </si>
+  <si>
+    <t>globe-network-canceled.jpg</t>
   </si>
 </sst>
 </file>
@@ -742,8 +739,8 @@
   </sheetPr>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -824,7 +821,7 @@
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" t="str">
@@ -836,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K2" t="str">
         <f t="shared" ref="K2:K15" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2 &amp; ". " &amp; F2,".",""),"&amp;","")," ","-"),"--","-")</f>
@@ -890,14 +887,14 @@
         <v>2</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" si="3"/>
         <v>2-Digitale-Religion-–-was-ist-das?</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="4"/>
@@ -942,14 +939,14 @@
         <v>3</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="3"/>
         <v>3-Affordanzen-der-Sozialen-Medien</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M4" s="12"/>
       <c r="N4" t="str">
@@ -995,14 +992,14 @@
         <v>4</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="3"/>
         <v>4-Influencing-als-Phänomen/Die-Figur-des/r-“Influencer*in“</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="4"/>
@@ -1029,33 +1026,29 @@
         <f t="shared" si="0"/>
         <v>2024-11-15-5.md</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="E6" s="16"/>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
-        <v>5. Forschungsmethoden: On- und Offline Fragen</v>
+        <v>5. fällt aus</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="3"/>
-        <v>5-On-und-Offline-Fragen</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>48</v>
-      </c>
+        <v>5-fällt-aus</v>
+      </c>
+      <c r="L6" s="11"/>
       <c r="N6" t="str">
         <f t="shared" si="4"/>
         <v>[5]</v>
@@ -1085,27 +1078,29 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
-        <v>6. Forschungsmethoden: Daten-Scraping</v>
+        <v>6. Forschungsmethoden: On- und Offline Fragen/Daten-Scraping</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="3"/>
-        <v>6-Daten-Scraping</v>
-      </c>
-      <c r="L7" s="12"/>
+        <v>6-On-und-Offline-Fragen/Daten-Scraping</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="N7" t="str">
         <f t="shared" si="4"/>
         <v>[6]</v>
@@ -1135,10 +1130,10 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
@@ -1149,14 +1144,14 @@
         <v>7</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="3"/>
         <v>7-Inhaltsanalyse-Medienanalyse</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="4"/>
@@ -1187,10 +1182,10 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
@@ -1201,14 +1196,14 @@
         <v>8</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="3"/>
         <v>8-Religiöse-Autorität-im-digitalen-Raum-(1)</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="4"/>
@@ -1239,10 +1234,10 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
@@ -1253,14 +1248,14 @@
         <v>9</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="3"/>
         <v>9-Religiöse-Autorität-im-digitalen-Raum-(2)</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="4"/>
@@ -1291,7 +1286,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
@@ -1302,14 +1297,14 @@
         <v>10</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="3"/>
         <v>10-Digitale-Religionen-Identität-(1)</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="4"/>
@@ -1340,10 +1335,10 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
@@ -1354,14 +1349,14 @@
         <v>11</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="3"/>
         <v>11-Digitale-Religionen-Identität-(2)</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="4"/>
@@ -1392,10 +1387,10 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
@@ -1406,7 +1401,7 @@
         <v>12</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="3"/>
@@ -1442,10 +1437,10 @@
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
@@ -1456,14 +1451,14 @@
         <v>13</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="3"/>
         <v>13-Erinnerung-Pluralität-(1)</v>
       </c>
       <c r="L14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="4"/>
@@ -1494,10 +1489,10 @@
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
@@ -1508,14 +1503,14 @@
         <v>14</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="3"/>
         <v>14-Erinnerung-Pluralität-(2)</v>
       </c>
       <c r="L15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="4"/>
@@ -1544,7 +1539,7 @@
       </c>
       <c r="E16" s="16"/>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" ref="H16" si="7">B16 &amp; ". " &amp; IF(ISBLANK(E16),"",E16 &amp; ": ") &amp; F16</f>
@@ -1555,7 +1550,7 @@
         <v>15</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" ref="K16" si="9">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B16 &amp; ". " &amp; F16,".",""),"&amp;","")," ","-"),"--","-")</f>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10112"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24raeume/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AA00B3-B853-924D-8447-A4850BFCD2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EB6BD1-7F0E-5F40-B55F-9CF8776D40FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
   <si>
     <t>blank</t>
   </si>
@@ -143,18 +143,9 @@
     <t>Institutionen, Akteure, Diskurse</t>
   </si>
   <si>
-    <t>Erinnerung &amp; Pluralität (1)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Allianzen und Konflikte </t>
   </si>
   <si>
-    <t>Erinnerung &amp; Pluralität (2)</t>
-  </si>
-  <si>
-    <t>Allianzen und Konflikte</t>
-  </si>
-  <si>
     <t>Rückblick</t>
   </si>
   <si>
@@ -188,9 +179,6 @@
     <t>battegayNeverForgetRepraesentationDeutungsmacht2023</t>
   </si>
   <si>
-    <t>tsuriaUnderstandingJewishDigital2018</t>
-  </si>
-  <si>
     <t>muellerGlaubensinfluencerInnenAuf2024</t>
   </si>
   <si>
@@ -209,9 +197,6 @@
     <t>hannukah-rainbow.jpg</t>
   </si>
   <si>
-    <t>woman-neon.jpg</t>
-  </si>
-  <si>
     <t>screen-head.jpg</t>
   </si>
   <si>
@@ -246,6 +231,15 @@
   </si>
   <si>
     <t>globe-network-canceled.jpg</t>
+  </si>
+  <si>
+    <t>Erinnerung &amp; Pluralität</t>
+  </si>
+  <si>
+    <t>Postervorstellung in der Evangelischen Akademie</t>
+  </si>
+  <si>
+    <t>ev-akademie.jpg</t>
   </si>
 </sst>
 </file>
@@ -737,10 +731,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -816,35 +810,35 @@
         <v>45583</v>
       </c>
       <c r="D2" s="5" t="str">
-        <f t="shared" ref="D2:D15" si="0">IF(LEN(C2),TEXT(C2, "YYYY-MM-DD") &amp; "-" &amp; B2 &amp; ".md",)</f>
+        <f t="shared" ref="D2:D16" si="0">IF(LEN(C2),TEXT(C2, "YYYY-MM-DD") &amp; "-" &amp; B2 &amp; ".md",)</f>
         <v>2024-10-18-1.md</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" t="str">
-        <f t="shared" ref="H2:H15" si="1">B2 &amp; ". " &amp; IF(ISBLANK(E2),"",E2 &amp; ": ") &amp; F2</f>
+        <f t="shared" ref="H2:H16" si="1">B2 &amp; ". " &amp; IF(ISBLANK(E2),"",E2 &amp; ": ") &amp; F2</f>
         <v>1. Einfühurung</v>
       </c>
       <c r="I2" s="3">
-        <f t="shared" ref="I2:I15" si="2">B2</f>
+        <f t="shared" ref="I2:I16" si="2">B2</f>
         <v>1</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K2" t="str">
-        <f t="shared" ref="K2:K15" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2 &amp; ". " &amp; F2,".",""),"&amp;","")," ","-"),"--","-")</f>
+        <f t="shared" ref="K2:K16" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2 &amp; ". " &amp; F2,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>1-Einfühurung</v>
       </c>
       <c r="N2" t="str">
-        <f t="shared" ref="N2:N15" si="4">"["&amp;B2&amp;"]"</f>
+        <f t="shared" ref="N2:N16" si="4">"["&amp;B2&amp;"]"</f>
         <v>[1]</v>
       </c>
       <c r="O2" t="str">
-        <f t="shared" ref="O2:O15" si="5">"---
+        <f t="shared" ref="O2:O16" si="5">"---
 layout: post
 " &amp; B$1 &amp; ": " &amp; B2 &amp; "
 " &amp; N$1 &amp; ": " &amp; N2 &amp; "
@@ -887,14 +881,14 @@
         <v>2</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" si="3"/>
         <v>2-Digitale-Religion-–-was-ist-das?</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" si="4"/>
@@ -939,14 +933,14 @@
         <v>3</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="3"/>
         <v>3-Affordanzen-der-Sozialen-Medien</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M4" s="12"/>
       <c r="N4" t="str">
@@ -992,14 +986,14 @@
         <v>4</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="3"/>
         <v>4-Influencing-als-Phänomen/Die-Figur-des/r-“Influencer*in“</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="4"/>
@@ -1028,10 +1022,10 @@
       </c>
       <c r="E6" s="16"/>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
@@ -1042,7 +1036,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="3"/>
@@ -1078,10 +1072,10 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
@@ -1092,14 +1086,14 @@
         <v>6</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="3"/>
         <v>6-On-und-Offline-Fragen/Daten-Scraping</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="4"/>
@@ -1144,14 +1138,14 @@
         <v>7</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="3"/>
         <v>7-Inhaltsanalyse-Medienanalyse</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="4"/>
@@ -1196,14 +1190,14 @@
         <v>8</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="3"/>
         <v>8-Religiöse-Autorität-im-digitalen-Raum-(1)</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="4"/>
@@ -1248,14 +1242,14 @@
         <v>9</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="3"/>
         <v>9-Religiöse-Autorität-im-digitalen-Raum-(2)</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N10" t="str">
         <f t="shared" si="4"/>
@@ -1297,14 +1291,14 @@
         <v>10</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="3"/>
         <v>10-Digitale-Religionen-Identität-(1)</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="4"/>
@@ -1349,14 +1343,14 @@
         <v>11</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="3"/>
         <v>11-Digitale-Religionen-Identität-(2)</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="4"/>
@@ -1383,29 +1377,25 @@
         <f t="shared" si="0"/>
         <v>2025-01-24-12.md</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="E13" s="16"/>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
-        <v>12. Pluralität: Interreligiöser Dialog</v>
+        <v>12. fällt aus</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>63</v>
-      </c>
+      <c r="J13" s="5"/>
       <c r="K13" t="str">
         <f t="shared" si="3"/>
-        <v>12-Interreligiöser-Dialog</v>
+        <v>12-fällt-aus</v>
       </c>
       <c r="L13" s="13"/>
       <c r="N13" t="str">
@@ -1437,14 +1427,14 @@
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
-        <v>13. Pluralität: Erinnerung &amp; Pluralität (1)</v>
+        <v>13. Pluralität: Interreligiöser Dialog</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="2"/>
@@ -1455,10 +1445,7 @@
       </c>
       <c r="K14" t="str">
         <f t="shared" si="3"/>
-        <v>13-Erinnerung-Pluralität-(1)</v>
-      </c>
-      <c r="L14" t="s">
-        <v>50</v>
+        <v>13-Interreligiöser-Dialog</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="4"/>
@@ -1485,32 +1472,24 @@
         <f t="shared" si="0"/>
         <v>2025-02-07-14.md</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>18</v>
-      </c>
+      <c r="E15" s="16"/>
       <c r="F15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
-        <v>14. Pluralität: Erinnerung &amp; Pluralität (2)</v>
+        <v>14. Rückblick</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="3"/>
-        <v>14-Erinnerung-Pluralität-(2)</v>
-      </c>
-      <c r="L15" t="s">
-        <v>51</v>
+        <v>14-Rückblick</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="4"/>
@@ -1531,64 +1510,116 @@
         <v>15</v>
       </c>
       <c r="C16" s="15">
-        <v>45702</v>
+        <v>45700</v>
       </c>
       <c r="D16" s="5" t="str">
-        <f t="shared" ref="D16" si="6">IF(LEN(C16),TEXT(C16, "YYYY-MM-DD") &amp; "-" &amp; B16 &amp; ".md",)</f>
-        <v>2025-02-14-15.md</v>
+        <f t="shared" si="0"/>
+        <v>2025-02-12-15.md</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" ref="H16" si="7">B16 &amp; ". " &amp; IF(ISBLANK(E16),"",E16 &amp; ": ") &amp; F16</f>
-        <v>15. Rückblick</v>
+        <f t="shared" si="1"/>
+        <v>15. Postervorstellung in der Evangelischen Akademie</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" ref="I16" si="8">B16</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="J16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="3"/>
+        <v>15-Postervorstellung-in-der-Evangelischen-Akademie</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="4"/>
+        <v>[15]</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="5"/>
+        <v>---
+layout: post
+session: 15
+tags: [15]
+level: overview
+---</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="3">
+        <v>16</v>
+      </c>
+      <c r="C17" s="15">
+        <v>45702</v>
+      </c>
+      <c r="D17" s="5" t="str">
+        <f t="shared" ref="D17" si="6">IF(LEN(C17),TEXT(C17, "YYYY-MM-DD") &amp; "-" &amp; B17 &amp; ".md",)</f>
+        <v>2025-02-14-16.md</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
         <v>66</v>
       </c>
-      <c r="K16" t="str">
-        <f t="shared" ref="K16" si="9">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B16 &amp; ". " &amp; F16,".",""),"&amp;","")," ","-"),"--","-")</f>
-        <v>15-Rückblick</v>
-      </c>
-      <c r="N16" t="str">
-        <f t="shared" ref="N16" si="10">"["&amp;B16&amp;"]"</f>
-        <v>[15]</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" ref="O16" si="11">"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B16 &amp; "
-" &amp; N$1 &amp; ": " &amp; N16 &amp; "
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" ref="H17" si="7">B17 &amp; ". " &amp; IF(ISBLANK(E17),"",E17 &amp; ": ") &amp; F17</f>
+        <v>16. Pluralität: Erinnerung &amp; Pluralität</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" ref="I17" si="8">B17</f>
+        <v>16</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" ref="K17" si="9">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B17 &amp; ". " &amp; F17,".",""),"&amp;","")," ","-"),"--","-")</f>
+        <v>16-Erinnerung-Pluralität</v>
+      </c>
+      <c r="L17" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" ref="N17" si="10">"["&amp;B17&amp;"]"</f>
+        <v>[16]</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" ref="O17" si="11">"---
+layout: post
+" &amp; B$1 &amp; ": " &amp; B17 &amp; "
+" &amp; N$1 &amp; ": " &amp; N17 &amp; "
 level: overview
 ---"</f>
         <v>---
 layout: post
-session: 15
-tags: [15]
+session: 16
+tags: [16]
 level: overview
 ---</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:G15 J2:J16">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="F2:G17">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>EXACT(#REF!,"NG")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>EXACT(#REF!,"CaW")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:G16">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="J2:J17">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>EXACT(#REF!,"NG")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>EXACT(#REF!,"CaW")</formula>
     </cfRule>
   </conditionalFormatting>
